--- a/Retinal_Candidate_Set/D_rerio_RARE_List.xlsx
+++ b/Retinal_Candidate_Set/D_rerio_RARE_List.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="RAREdar_Results" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/frankz55/Documents/GitHub/RAREdar/output/RAREdar_Results.txt">
+    <textPr fileType="mac" sourceFile="/Users/frankz55/Documents/GitHub/RAREdar/output/RAREdar_Results.txt">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="194">
   <si>
     <t>Chromosome</t>
   </si>
@@ -560,13 +560,82 @@
   </si>
   <si>
     <t>chr25_KZ115740v1_alt</t>
+  </si>
+  <si>
+    <t>caska</t>
+  </si>
+  <si>
+    <t>slc38a3a</t>
+  </si>
+  <si>
+    <t>foxg1b</t>
+  </si>
+  <si>
+    <t>gabrr2a</t>
+  </si>
+  <si>
+    <t>vsx2</t>
+  </si>
+  <si>
+    <t>cspg5b</t>
+  </si>
+  <si>
+    <t>septin4a</t>
+  </si>
+  <si>
+    <t>slc45a2</t>
+  </si>
+  <si>
+    <t>rx1</t>
+  </si>
+  <si>
+    <t>bmp7b</t>
+  </si>
+  <si>
+    <t>stra6</t>
+  </si>
+  <si>
+    <t>samd7</t>
+  </si>
+  <si>
+    <t>sterile alpha motif domain containing 7</t>
+  </si>
+  <si>
+    <t>foxn4</t>
+  </si>
+  <si>
+    <t>forkhead box N4</t>
+  </si>
+  <si>
+    <t>prmt3</t>
+  </si>
+  <si>
+    <t>protein arginine methyltransferase 3</t>
+  </si>
+  <si>
+    <t>nrn1lb</t>
+  </si>
+  <si>
+    <t>neuritin 1-like b</t>
+  </si>
+  <si>
+    <t>lhx2b</t>
+  </si>
+  <si>
+    <t>LIM homeobox 2b</t>
+  </si>
+  <si>
+    <t>lhx4</t>
+  </si>
+  <si>
+    <t>LIM homeobox 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -574,13 +643,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -592,13 +681,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -879,10 +973,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -894,7 +988,7 @@
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -911,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -927,8 +1021,14 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -945,7 +1045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -962,7 +1062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -979,7 +1079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -996,7 +1096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +1113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1047,7 +1147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1064,7 +1164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1080,8 +1180,14 @@
       <c r="E11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1098,7 +1204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1115,7 +1221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1132,7 +1238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1148,8 +1254,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1165,8 +1277,14 @@
       <c r="E16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1182,8 +1300,14 @@
       <c r="E17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1199,8 +1323,14 @@
       <c r="E18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1217,7 +1347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1234,7 +1364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1251,7 +1381,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1268,7 +1398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1285,7 +1415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1302,7 +1432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1319,7 +1449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1336,7 +1466,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1353,7 +1483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1370,7 +1500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1386,8 +1516,14 @@
       <c r="E29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1403,8 +1539,14 @@
       <c r="E30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1420,8 +1562,14 @@
       <c r="E31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1437,8 +1585,14 @@
       <c r="E32" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1455,7 +1609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1472,7 +1626,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1489,7 +1643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1506,7 +1660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1523,7 +1677,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1540,7 +1694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1557,7 +1711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1574,7 +1728,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -1590,8 +1744,11 @@
       <c r="E41" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1607,8 +1764,11 @@
       <c r="E42" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1624,8 +1784,11 @@
       <c r="E43" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1641,8 +1804,11 @@
       <c r="E44" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1658,8 +1824,11 @@
       <c r="E45" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1675,8 +1844,11 @@
       <c r="E46" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1692,8 +1864,11 @@
       <c r="E47" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1708,6 +1883,9 @@
       </c>
       <c r="E48" t="s">
         <v>55</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -1982,7 +2160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -1999,7 +2177,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -2016,7 +2194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -2033,7 +2211,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -2050,7 +2228,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -2066,8 +2244,11 @@
       <c r="E69" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -2083,8 +2264,11 @@
       <c r="E70" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -2101,7 +2285,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -2118,7 +2302,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -2135,7 +2319,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>95</v>
       </c>
@@ -2152,7 +2336,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -2169,7 +2353,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -2186,7 +2370,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -2203,7 +2387,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -2220,7 +2404,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>95</v>
       </c>
@@ -2237,7 +2421,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>100</v>
       </c>
@@ -2253,8 +2437,11 @@
       <c r="E80" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -2270,8 +2457,11 @@
       <c r="E81" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -2287,8 +2477,11 @@
       <c r="E82" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -2305,7 +2498,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>100</v>
       </c>
@@ -2322,7 +2515,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -2339,7 +2532,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>108</v>
       </c>
@@ -2355,8 +2548,11 @@
       <c r="E86" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -2372,8 +2568,11 @@
       <c r="E87" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>108</v>
       </c>
@@ -2390,7 +2589,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -2407,7 +2606,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -2424,7 +2623,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -2441,7 +2640,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>108</v>
       </c>
@@ -2458,7 +2657,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -2475,7 +2674,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -2492,7 +2691,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -2509,7 +2708,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -3070,7 +3269,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>108</v>
       </c>
@@ -3087,7 +3286,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>108</v>
       </c>
@@ -3104,7 +3303,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>108</v>
       </c>
@@ -3121,7 +3320,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -3137,8 +3336,11 @@
       <c r="E132" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -3154,8 +3356,11 @@
       <c r="E133" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -3171,8 +3376,11 @@
       <c r="E134" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>131</v>
       </c>
@@ -3188,8 +3396,11 @@
       <c r="E135" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="E136" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -3222,8 +3436,11 @@
       <c r="E137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F137" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>134</v>
       </c>
@@ -3239,8 +3456,11 @@
       <c r="E138" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F138" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>134</v>
       </c>
@@ -3256,8 +3476,11 @@
       <c r="E139" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F139" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>134</v>
       </c>
@@ -3273,8 +3496,11 @@
       <c r="E140" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F140" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>134</v>
       </c>
@@ -3290,8 +3516,11 @@
       <c r="E141" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F141" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -3308,7 +3537,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>134</v>
       </c>
@@ -3325,7 +3554,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>134</v>
       </c>
@@ -3886,7 +4115,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>145</v>
       </c>
@@ -3903,7 +4132,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>145</v>
       </c>
@@ -3920,7 +4149,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>145</v>
       </c>
@@ -3937,7 +4166,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>145</v>
       </c>
@@ -3954,7 +4183,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>162</v>
       </c>
@@ -3970,8 +4199,11 @@
       <c r="E181" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F181" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>162</v>
       </c>
@@ -3987,8 +4219,11 @@
       <c r="E182" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F182" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>162</v>
       </c>
@@ -4004,8 +4239,11 @@
       <c r="E183" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F183" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>166</v>
       </c>
@@ -4021,8 +4259,11 @@
       <c r="E184" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F184" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>168</v>
       </c>
@@ -4038,8 +4279,11 @@
       <c r="E185" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F185" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>169</v>
       </c>
@@ -4055,8 +4299,11 @@
       <c r="E186" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F186" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>170</v>
       </c>
@@ -4071,6 +4318,9 @@
       </c>
       <c r="E187" t="s">
         <v>88</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4081,6 +4331,34 @@
       </customFilters>
     </filterColumn>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="F41" r:id="rId1" display="http://zfin.org/ZDB-GENE-020802-4"/>
+    <hyperlink ref="F42" r:id="rId2" display="http://zfin.org/ZDB-GENE-070615-25"/>
+    <hyperlink ref="F44" r:id="rId3" display="http://zfin.org/ZDB-GENE-060825-164"/>
+    <hyperlink ref="F45" r:id="rId4" display="http://zfin.org/ZDB-GENE-060825-164"/>
+    <hyperlink ref="F46" r:id="rId5" display="http://zfin.org/ZDB-GENE-001222-1"/>
+    <hyperlink ref="F69" r:id="rId6" display="http://zfin.org/ZDB-GENE-070615-25"/>
+    <hyperlink ref="F80" r:id="rId7" display="http://zfin.org/ZDB-GENE-060825-164"/>
+    <hyperlink ref="F81" r:id="rId8" display="http://zfin.org/ZDB-GENE-060825-164"/>
+    <hyperlink ref="F82" r:id="rId9" display="http://zfin.org/ZDB-GENE-001222-1"/>
+    <hyperlink ref="F134" r:id="rId10" display="https://zfin.org/ZDB-GENE-050208-97"/>
+    <hyperlink ref="F135" r:id="rId11" display="https://zfin.org/ZDB-GENE-990415-236"/>
+    <hyperlink ref="F136" r:id="rId12" display="https://zfin.org/ZDB-GENE-060929-328"/>
+    <hyperlink ref="F137" r:id="rId13" display="https://zfin.org/ZDB-GENE-060929-328"/>
+    <hyperlink ref="F132" r:id="rId14" display="https://zfin.org/ZDB-GENE-051120-87"/>
+    <hyperlink ref="F133" r:id="rId15" display="https://zfin.org/ZDB-GENE-051120-87"/>
+    <hyperlink ref="F138" r:id="rId16" display="https://zfin.org/ZDB-GENE-060616-252"/>
+    <hyperlink ref="F139" r:id="rId17" display="https://zfin.org/ZDB-GENE-070615-25"/>
+    <hyperlink ref="F140" r:id="rId18" display="https://zfin.org/ZDB-GENE-050208-97"/>
+    <hyperlink ref="F141" r:id="rId19" display="https://zfin.org/ZDB-GENE-060616-252"/>
+    <hyperlink ref="F181" r:id="rId20" display="https://zfin.org/ZDB-GENE-060616-252"/>
+    <hyperlink ref="F182" r:id="rId21" display="https://zfin.org/ZDB-GENE-070615-25"/>
+    <hyperlink ref="F183" r:id="rId22" display="https://zfin.org/ZDB-GENE-050208-97"/>
+    <hyperlink ref="F184" r:id="rId23" display="https://zfin.org/ZDB-GENE-060616-252"/>
+    <hyperlink ref="F185" r:id="rId24" display="https://zfin.org/ZDB-GENE-070615-25"/>
+    <hyperlink ref="F186" r:id="rId25" display="https://zfin.org/ZDB-GENE-050208-97"/>
+    <hyperlink ref="F187" r:id="rId26" display="https://zfin.org/ZDB-GENE-060616-252"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Retinal_Candidate_Set/D_rerio_RARE_List.xlsx
+++ b/Retinal_Candidate_Set/D_rerio_RARE_List.xlsx
@@ -695,7 +695,58 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -975,8 +1026,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1028,7 +1079,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1062,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1164,7 +1215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1238,7 +1289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1261,7 +1312,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1284,7 +1335,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1307,7 +1358,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1500,7 +1551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1523,7 +1574,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1546,7 +1597,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1569,7 +1620,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1748,7 +1799,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1768,7 +1819,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1788,7 +1839,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1808,7 +1859,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1828,7 +1879,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1848,7 +1899,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1868,7 +1919,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1888,7 +1939,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1905,7 +1956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1922,7 +1973,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1939,7 +1990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1956,7 +2007,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1973,7 +2024,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1990,7 +2041,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2007,7 +2058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2024,7 +2075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -2041,7 +2092,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -2058,7 +2109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -2075,7 +2126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -2092,7 +2143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -2109,7 +2160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -2126,7 +2177,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -2143,7 +2194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -2177,7 +2228,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -2228,7 +2279,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -2248,7 +2299,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -2268,7 +2319,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -2302,7 +2353,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -2353,7 +2404,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -2404,7 +2455,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>95</v>
       </c>
@@ -2441,7 +2492,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -2461,7 +2512,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -2498,7 +2549,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>100</v>
       </c>
@@ -2532,7 +2583,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>108</v>
       </c>
@@ -2589,7 +2640,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -2708,7 +2759,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -2742,7 +2793,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -2776,7 +2827,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -2878,7 +2929,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -2997,7 +3048,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -3099,7 +3150,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>108</v>
       </c>
@@ -3201,7 +3252,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>108</v>
       </c>
@@ -3303,7 +3354,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>108</v>
       </c>
@@ -3320,7 +3371,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -3340,7 +3391,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -3380,7 +3431,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>131</v>
       </c>
@@ -3400,7 +3451,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -3420,7 +3471,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -3588,7 +3639,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>134</v>
       </c>
@@ -3605,7 +3656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -3639,7 +3690,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>145</v>
       </c>
@@ -3656,7 +3707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>145</v>
       </c>
@@ -3741,7 +3792,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>145</v>
       </c>
@@ -3775,7 +3826,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>145</v>
       </c>
@@ -3809,7 +3860,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>145</v>
       </c>
@@ -3826,7 +3877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>145</v>
       </c>
@@ -3843,7 +3894,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>145</v>
       </c>
@@ -3877,7 +3928,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>145</v>
       </c>
@@ -3894,7 +3945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>145</v>
       </c>
@@ -3911,7 +3962,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>145</v>
       </c>
@@ -3945,7 +3996,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>145</v>
       </c>
@@ -3962,7 +4013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>145</v>
       </c>
@@ -3979,7 +4030,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>145</v>
       </c>
@@ -4013,7 +4064,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>145</v>
       </c>
@@ -4030,7 +4081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>145</v>
       </c>
@@ -4047,7 +4098,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>145</v>
       </c>
@@ -4081,7 +4132,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>145</v>
       </c>
@@ -4098,7 +4149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>145</v>
       </c>
@@ -4149,7 +4200,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>145</v>
       </c>
@@ -4183,7 +4234,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>162</v>
       </c>
@@ -4263,7 +4314,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>168</v>
       </c>
@@ -4303,7 +4354,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>170</v>
       </c>
@@ -4325,10 +4376,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E187">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter val="*NM*"/>
-      </customFilters>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Forward Coding"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
